--- a/src/VNEXT/Dora.School/wwwroot/template/student.xlsx
+++ b/src/VNEXT/Dora.School/wwwroot/template/student.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>学号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -25,18 +25,6 @@
   </si>
   <si>
     <t>身份证</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2040133234</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>徐枫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>340801198903121714</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -438,7 +426,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -459,15 +449,9 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>5</v>
-      </c>
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/src/VNEXT/Dora.School/wwwroot/template/student.xlsx
+++ b/src/VNEXT/Dora.School/wwwroot/template/student.xlsx
@@ -1,20 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28908"/>
+  <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/craze-pc/Projects/Dora/src/VNEXT/Dora.School/wwwroot/template/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="学生" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>学号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -27,23 +40,30 @@
     <t>身份证</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>班级</t>
+    <rPh sb="0" eb="1">
+      <t>ban ji</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -51,7 +71,7 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -59,7 +79,7 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -89,16 +109,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -108,7 +128,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -128,6 +148,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -136,6 +159,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -182,12 +210,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="DengXian Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -214,14 +242,15 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="DengXian" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -248,6 +277,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -423,21 +453,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="10.625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="20.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="21.75" customHeight="1">
+    <row r="1" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -447,11 +477,15 @@
       <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="6"/>
+      <c r="D2" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
